--- a/run_log/run_results/train_history/training_history_run_14.xlsx
+++ b/run_log/run_results/train_history/training_history_run_14.xlsx
@@ -395,702 +395,702 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2">
-        <v>0.03906150162220001</v>
+        <v>0.09710603207349777</v>
       </c>
       <c r="B2">
-        <v>0.9921561479568481</v>
+        <v>0.9872792363166809</v>
       </c>
       <c r="C2">
-        <v>0.0251575019210577</v>
+        <v>0.05815830081701279</v>
       </c>
       <c r="D2">
-        <v>0.9981589317321777</v>
+        <v>0.9939548373222351</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3">
-        <v>0.005107731092721224</v>
+        <v>0.02685911022126675</v>
       </c>
       <c r="B3">
-        <v>0.9986866116523743</v>
+        <v>0.9978798627853394</v>
       </c>
       <c r="C3">
-        <v>0.009890035726130009</v>
+        <v>0.04530838504433632</v>
       </c>
       <c r="D3">
-        <v>0.9989340901374817</v>
+        <v>0.9942730069160461</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4">
-        <v>0.002498113783076406</v>
+        <v>0.01106847450137138</v>
       </c>
       <c r="B4">
-        <v>0.9993067979812622</v>
+        <v>0.9982584714889526</v>
       </c>
       <c r="C4">
-        <v>0.003552928566932678</v>
+        <v>0.03361079096794128</v>
       </c>
       <c r="D4">
-        <v>0.9993216991424561</v>
+        <v>0.9955456852912903</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5">
-        <v>0.0008567964541725814</v>
+        <v>0.007478190120309591</v>
       </c>
       <c r="B5">
-        <v>0.9997628331184387</v>
+        <v>0.9984666705131531</v>
       </c>
       <c r="C5">
-        <v>0.002632959047332406</v>
+        <v>0.03296075761318207</v>
       </c>
       <c r="D5">
-        <v>0.9996123909950256</v>
+        <v>0.9949093461036682</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6">
-        <v>0.001378699671477079</v>
+        <v>0.006323980167508125</v>
       </c>
       <c r="B6">
-        <v>0.9996716380119324</v>
+        <v>0.9985045790672302</v>
       </c>
       <c r="C6">
-        <v>0.00354481884278357</v>
+        <v>0.07847646623849869</v>
       </c>
       <c r="D6">
-        <v>0.9995155334472656</v>
+        <v>0.9815462827682495</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7">
-        <v>0.0004504274402279407</v>
+        <v>0.005134343635290861</v>
       </c>
       <c r="B7">
-        <v>0.9998540878295898</v>
+        <v>0.9986370801925659</v>
       </c>
       <c r="C7">
-        <v>0.003242953680455685</v>
+        <v>0.02376365289092064</v>
       </c>
       <c r="D7">
-        <v>0.9997093081474304</v>
+        <v>0.9958637952804565</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8">
-        <v>0.0007809961680322886</v>
+        <v>0.004825778771191835</v>
       </c>
       <c r="B8">
-        <v>0.9997263550758362</v>
+        <v>0.998580276966095</v>
       </c>
       <c r="C8">
-        <v>0.002016675658524036</v>
+        <v>0.03216518461704254</v>
       </c>
       <c r="D8">
-        <v>0.9995155334472656</v>
+        <v>0.9958637952804565</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9">
-        <v>0.0004833187558688223</v>
+        <v>0.004204226657748222</v>
       </c>
       <c r="B9">
-        <v>0.9998723268508911</v>
+        <v>0.9987884759902954</v>
       </c>
       <c r="C9">
-        <v>0.002899728715419769</v>
+        <v>0.01572470925748348</v>
       </c>
       <c r="D9">
-        <v>0.9993216991424561</v>
+        <v>0.9965001344680786</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10">
-        <v>0.0004185354337096214</v>
+        <v>0.004523877985775471</v>
       </c>
       <c r="B10">
-        <v>0.9999088048934937</v>
+        <v>0.9986370801925659</v>
       </c>
       <c r="C10">
-        <v>0.00122601876500994</v>
+        <v>0.01691340282559395</v>
       </c>
       <c r="D10">
-        <v>0.9997093081474304</v>
+        <v>0.9965001344680786</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11">
-        <v>0.001146434457041323</v>
+        <v>0.004420673009008169</v>
       </c>
       <c r="B11">
-        <v>0.9997628331184387</v>
+        <v>0.9986938238143921</v>
       </c>
       <c r="C11">
-        <v>0.003295904723927379</v>
+        <v>0.0184360034763813</v>
       </c>
       <c r="D11">
-        <v>0.9995155334472656</v>
+        <v>0.9971364736557007</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12">
-        <v>0.0003187146212439984</v>
+        <v>0.004237192682921886</v>
       </c>
       <c r="B12">
-        <v>0.9998358488082886</v>
+        <v>0.9987127780914307</v>
       </c>
       <c r="C12">
-        <v>0.002242823364213109</v>
+        <v>0.03463906422257423</v>
       </c>
       <c r="D12">
-        <v>0.9997093081474304</v>
+        <v>0.9977728128433228</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13">
-        <v>0.0002200383751187474</v>
+        <v>0.004454357549548149</v>
       </c>
       <c r="B13">
-        <v>0.9999270439147949</v>
+        <v>0.9987695813179016</v>
       </c>
       <c r="C13">
-        <v>0.01405326370149851</v>
+        <v>0.02877644076943398</v>
       </c>
       <c r="D13">
-        <v>0.9970930218696594</v>
+        <v>0.9971364736557007</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14">
-        <v>0.0004155806091148406</v>
+        <v>0.004041386768221855</v>
       </c>
       <c r="B14">
-        <v>0.9998723268508911</v>
+        <v>0.998807430267334</v>
       </c>
       <c r="C14">
-        <v>0.00145783694460988</v>
+        <v>0.02446878328919411</v>
       </c>
       <c r="D14">
-        <v>0.9996123909950256</v>
+        <v>0.9971364736557007</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15">
-        <v>7.530889706686139E-05</v>
+        <v>0.003855388844385743</v>
       </c>
       <c r="B15">
-        <v>0.9999817609786987</v>
+        <v>0.9989777803421021</v>
       </c>
       <c r="C15">
-        <v>0.001763536012731493</v>
+        <v>0.02178826183080673</v>
       </c>
       <c r="D15">
-        <v>0.9998062252998352</v>
+        <v>0.9974546432495117</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16">
-        <v>0.0003697139618452638</v>
+        <v>0.004553400445729494</v>
       </c>
       <c r="B16">
-        <v>0.9998905658721924</v>
+        <v>0.9989399313926697</v>
       </c>
       <c r="C16">
-        <v>0.001527126994915307</v>
+        <v>0.02268754690885544</v>
       </c>
       <c r="D16">
-        <v>0.9998062252998352</v>
+        <v>0.9968183040618896</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17">
-        <v>0.0002028975868597627</v>
+        <v>0.004129610955715179</v>
       </c>
       <c r="B17">
-        <v>0.9999088048934937</v>
+        <v>0.999034583568573</v>
       </c>
       <c r="C17">
-        <v>0.001319011789746583</v>
+        <v>0.02228164114058018</v>
       </c>
       <c r="D17">
-        <v>0.9997093081474304</v>
+        <v>0.9974546432495117</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18">
-        <v>0.000402020727051422</v>
+        <v>0.002926370594650507</v>
       </c>
       <c r="B18">
-        <v>0.9998723268508911</v>
+        <v>0.9994699954986572</v>
       </c>
       <c r="C18">
-        <v>0.0009174637380056083</v>
+        <v>0.02777880802750587</v>
       </c>
       <c r="D18">
-        <v>0.9998062252998352</v>
+        <v>0.9974546432495117</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19">
-        <v>3.904705226887017E-05</v>
+        <v>0.003564843209460378</v>
       </c>
       <c r="B19">
-        <v>0.9999817609786987</v>
+        <v>0.9992427825927734</v>
       </c>
       <c r="C19">
-        <v>0.03622065857052803</v>
+        <v>0.02762977592647076</v>
       </c>
       <c r="D19">
-        <v>0.989534854888916</v>
+        <v>0.9974546432495117</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20">
-        <v>0.0004145430866628885</v>
+        <v>0.004055096302181482</v>
       </c>
       <c r="B20">
-        <v>0.9999452829360962</v>
+        <v>0.9991102814674377</v>
       </c>
       <c r="C20">
-        <v>0.001577383955009282</v>
+        <v>0.02798586897552013</v>
       </c>
       <c r="D20">
-        <v>0.9998062252998352</v>
+        <v>0.9974546432495117</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21">
-        <v>5.222892923484324E-06</v>
+        <v>0.004523102194070816</v>
       </c>
       <c r="B21">
-        <v>1</v>
+        <v>0.999034583568573</v>
       </c>
       <c r="C21">
-        <v>0.001902229501865804</v>
+        <v>0.02222481556236744</v>
       </c>
       <c r="D21">
-        <v>0.9998062252998352</v>
+        <v>0.9974546432495117</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22">
-        <v>9.245336696039885E-05</v>
+        <v>0.003323583398014307</v>
       </c>
       <c r="B22">
-        <v>0.9999817609786987</v>
+        <v>0.9993374347686768</v>
       </c>
       <c r="C22">
-        <v>0.002356121782213449</v>
+        <v>0.02308197878301144</v>
       </c>
       <c r="D22">
-        <v>0.9997093081474304</v>
+        <v>0.9974546432495117</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23">
-        <v>5.494557626661845E-05</v>
+        <v>0.004548867698758841</v>
       </c>
       <c r="B23">
-        <v>0.9999817609786987</v>
+        <v>0.9991102814674377</v>
       </c>
       <c r="C23">
-        <v>0.001917803892865777</v>
+        <v>0.02789357118308544</v>
       </c>
       <c r="D23">
-        <v>0.9998062252998352</v>
+        <v>0.9984091520309448</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24">
-        <v>0.0009085505735129118</v>
+        <v>0.004070224240422249</v>
       </c>
       <c r="B24">
-        <v>0.999799370765686</v>
+        <v>0.9990913867950439</v>
       </c>
       <c r="C24">
-        <v>0.01590597257018089</v>
+        <v>0.03223966807126999</v>
       </c>
       <c r="D24">
-        <v>0.9940891265869141</v>
+        <v>0.9974546432495117</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25">
-        <v>0.0002100647106999531</v>
+        <v>0.004418177995830774</v>
       </c>
       <c r="B25">
-        <v>0.9999088048934937</v>
+        <v>0.9991102814674377</v>
       </c>
       <c r="C25">
-        <v>0.003128445474430919</v>
+        <v>0.02838349901139736</v>
       </c>
       <c r="D25">
-        <v>0.9996123909950256</v>
+        <v>0.9974546432495117</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26">
-        <v>0.0002270894328830764</v>
+        <v>0.004044883418828249</v>
       </c>
       <c r="B26">
-        <v>0.9999635219573975</v>
+        <v>0.9991292357444763</v>
       </c>
       <c r="C26">
-        <v>0.001743784639984369</v>
+        <v>0.02680773101747036</v>
       </c>
       <c r="D26">
-        <v>0.9996123909950256</v>
+        <v>0.9971364736557007</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27">
-        <v>0.0003777021483983845</v>
+        <v>0.004043952561914921</v>
       </c>
       <c r="B27">
-        <v>0.9998905658721924</v>
+        <v>0.9991670846939087</v>
       </c>
       <c r="C27">
-        <v>0.002539301756769419</v>
+        <v>0.0321003682911396</v>
       </c>
       <c r="D27">
-        <v>0.9998062252998352</v>
+        <v>0.9974546432495117</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28">
-        <v>0.0001555036724312231</v>
+        <v>0.003342764684930444</v>
       </c>
       <c r="B28">
-        <v>0.9999452829360962</v>
+        <v>0.9993374347686768</v>
       </c>
       <c r="C28">
-        <v>0.003364400239661336</v>
+        <v>0.03163162618875504</v>
       </c>
       <c r="D28">
-        <v>0.9996123909950256</v>
+        <v>0.9980909824371338</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29">
-        <v>0.0001964286057045683</v>
+        <v>0.003697881242260337</v>
       </c>
       <c r="B29">
-        <v>0.9999452829360962</v>
+        <v>0.999261736869812</v>
       </c>
       <c r="C29">
-        <v>0.004094863776117563</v>
+        <v>0.02882522717118263</v>
       </c>
       <c r="D29">
-        <v>0.9998062252998352</v>
+        <v>0.9980909824371338</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30">
-        <v>0.0002028731832979247</v>
+        <v>0.00396894384175539</v>
       </c>
       <c r="B30">
-        <v>0.9999270439147949</v>
+        <v>0.9991292357444763</v>
       </c>
       <c r="C30">
-        <v>0.006687408778816462</v>
+        <v>0.04555697739124298</v>
       </c>
       <c r="D30">
-        <v>0.9981589317321777</v>
+        <v>0.9977728128433228</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31">
-        <v>0.0001217942335642874</v>
+        <v>0.003428887110203505</v>
       </c>
       <c r="B31">
-        <v>0.9999817609786987</v>
+        <v>0.9994131922721863</v>
       </c>
       <c r="C31">
-        <v>0.003810335183516145</v>
+        <v>0.04260098189115524</v>
       </c>
       <c r="D31">
-        <v>0.9997093081474304</v>
+        <v>0.9980909824371338</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32">
-        <v>1.467064157623099E-05</v>
+        <v>0.003801741171628237</v>
       </c>
       <c r="B32">
-        <v>1</v>
+        <v>0.9991292357444763</v>
       </c>
       <c r="C32">
-        <v>0.003934222739189863</v>
+        <v>0.03211163356900215</v>
       </c>
       <c r="D32">
-        <v>0.9998062252998352</v>
+        <v>0.9980909824371338</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33">
-        <v>0.0006167178507894278</v>
+        <v>0.003890153020620346</v>
       </c>
       <c r="B33">
-        <v>0.9998723268508911</v>
+        <v>0.9991481900215149</v>
       </c>
       <c r="C33">
-        <v>0.06916473060846329</v>
+        <v>0.02726985514163971</v>
       </c>
       <c r="D33">
-        <v>0.9795542359352112</v>
+        <v>0.9980909824371338</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34">
-        <v>0.000291293574264273</v>
+        <v>0.003542009741067886</v>
       </c>
       <c r="B34">
-        <v>0.9999635219573975</v>
+        <v>0.999261736869812</v>
       </c>
       <c r="C34">
-        <v>0.06201036274433136</v>
+        <v>0.03183046728372574</v>
       </c>
       <c r="D34">
-        <v>0.9823643565177917</v>
+        <v>0.9980909824371338</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35">
-        <v>0.0001377671287627891</v>
+        <v>0.004088382236659527</v>
       </c>
       <c r="B35">
-        <v>0.9999635219573975</v>
+        <v>0.9991102814674377</v>
       </c>
       <c r="C35">
-        <v>0.00574254197999835</v>
+        <v>0.0330834835767746</v>
       </c>
       <c r="D35">
-        <v>0.9996123909950256</v>
+        <v>0.9980909824371338</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36">
-        <v>0.0001539139047963545</v>
+        <v>0.003787299152463675</v>
       </c>
       <c r="B36">
-        <v>0.9999635219573975</v>
+        <v>0.9992238879203796</v>
       </c>
       <c r="C36">
-        <v>0.00588420731946826</v>
+        <v>0.03787132725119591</v>
       </c>
       <c r="D36">
-        <v>0.9998062252998352</v>
+        <v>0.9974546432495117</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37">
-        <v>0.0002114194358000532</v>
+        <v>0.00311693549156189</v>
       </c>
       <c r="B37">
-        <v>0.9999270439147949</v>
+        <v>0.9994131922721863</v>
       </c>
       <c r="C37">
-        <v>0.006399831734597683</v>
+        <v>0.03463936224579811</v>
       </c>
       <c r="D37">
-        <v>0.9995155334472656</v>
+        <v>0.9974546432495117</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38">
-        <v>0.0001484135864302516</v>
+        <v>0.003718815045431256</v>
       </c>
       <c r="B38">
-        <v>0.9999270439147949</v>
+        <v>0.9991860389709473</v>
       </c>
       <c r="C38">
-        <v>0.007052415050566196</v>
+        <v>0.03611919283866882</v>
       </c>
       <c r="D38">
-        <v>0.9998062252998352</v>
+        <v>0.9977728128433228</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39">
-        <v>3.932242634618888E-06</v>
+        <v>0.003628178266808391</v>
       </c>
       <c r="B39">
-        <v>1</v>
+        <v>0.9992427825927734</v>
       </c>
       <c r="C39">
-        <v>0.008567353710532188</v>
+        <v>0.05458014458417892</v>
       </c>
       <c r="D39">
-        <v>0.9991279244422913</v>
+        <v>0.9974546432495117</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40">
-        <v>5.68017298974155E-07</v>
+        <v>0.003968276549130678</v>
       </c>
       <c r="B40">
-        <v>1</v>
+        <v>0.9990913867950439</v>
       </c>
       <c r="C40">
-        <v>0.00738028809428215</v>
+        <v>0.02719040773808956</v>
       </c>
       <c r="D40">
-        <v>0.9998062252998352</v>
+        <v>0.9980909824371338</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41">
-        <v>0.0002837222709786147</v>
+        <v>0.005423769820481539</v>
       </c>
       <c r="B41">
-        <v>0.9999635219573975</v>
+        <v>0.999034583568573</v>
       </c>
       <c r="C41">
-        <v>0.006977607030421495</v>
+        <v>0.05385555699467659</v>
       </c>
       <c r="D41">
-        <v>0.9997093081474304</v>
+        <v>0.9977728128433228</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42">
-        <v>0.0006788516766391695</v>
+        <v>0.003552494570612907</v>
       </c>
       <c r="B42">
-        <v>0.9998540878295898</v>
+        <v>0.999318540096283</v>
       </c>
       <c r="C42">
-        <v>0.009326298721134663</v>
+        <v>0.05979811027646065</v>
       </c>
       <c r="D42">
-        <v>0.9998062252998352</v>
+        <v>0.9974546432495117</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43">
-        <v>0.0002846487041097134</v>
+        <v>0.003552684094756842</v>
       </c>
       <c r="B43">
-        <v>0.9999817609786987</v>
+        <v>0.999261736869812</v>
       </c>
       <c r="C43">
-        <v>0.006327632814645767</v>
+        <v>0.05861984938383102</v>
       </c>
       <c r="D43">
-        <v>0.9998062252998352</v>
+        <v>0.9974546432495117</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44">
-        <v>1.964097464224324E-06</v>
+        <v>0.00392773887142539</v>
       </c>
       <c r="B44">
-        <v>1</v>
+        <v>0.9992049336433411</v>
       </c>
       <c r="C44">
-        <v>0.006516177207231522</v>
+        <v>0.04595331102609634</v>
       </c>
       <c r="D44">
-        <v>0.9998062252998352</v>
+        <v>0.9980909824371338</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45">
-        <v>0.0003113990242127329</v>
+        <v>0.003732847049832344</v>
       </c>
       <c r="B45">
-        <v>0.9999635219573975</v>
+        <v>0.999261736869812</v>
       </c>
       <c r="C45">
-        <v>0.006156794726848602</v>
+        <v>0.03814717754721642</v>
       </c>
       <c r="D45">
-        <v>0.9998062252998352</v>
+        <v>0.9974546432495117</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46">
-        <v>2.625210072437767E-05</v>
+        <v>0.002643566112965345</v>
       </c>
       <c r="B46">
-        <v>0.9999817609786987</v>
+        <v>0.9995078444480896</v>
       </c>
       <c r="C46">
-        <v>0.006388499401509762</v>
+        <v>0.04010450839996338</v>
       </c>
       <c r="D46">
-        <v>0.9998062252998352</v>
+        <v>0.9974546432495117</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47">
-        <v>2.241169204353355E-05</v>
+        <v>0.002710732631385326</v>
       </c>
       <c r="B47">
-        <v>0.9999817609786987</v>
+        <v>0.9994510412216187</v>
       </c>
       <c r="C47">
-        <v>0.00707608088850975</v>
+        <v>0.04469374567270279</v>
       </c>
       <c r="D47">
-        <v>0.9998062252998352</v>
+        <v>0.9980909824371338</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48">
-        <v>1.962002170330379E-05</v>
+        <v>0.003474482102319598</v>
       </c>
       <c r="B48">
-        <v>0.9999817609786987</v>
+        <v>0.999261736869812</v>
       </c>
       <c r="C48">
-        <v>0.05370929837226868</v>
+        <v>0.04085085168480873</v>
       </c>
       <c r="D48">
-        <v>0.9887596964836121</v>
+        <v>0.9980909824371338</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49">
-        <v>0.0002058630780084059</v>
+        <v>0.003149901051074266</v>
       </c>
       <c r="B49">
-        <v>0.9999452829360962</v>
+        <v>0.9993563890457153</v>
       </c>
       <c r="C49">
-        <v>0.0072059934027493</v>
+        <v>0.04933448880910873</v>
       </c>
       <c r="D49">
-        <v>0.9997093081474304</v>
+        <v>0.9974546432495117</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50">
-        <v>3.761835978366435E-05</v>
+        <v>0.004067272879183292</v>
       </c>
       <c r="B50">
-        <v>0.9999817609786987</v>
+        <v>0.9992049336433411</v>
       </c>
       <c r="C50">
-        <v>0.007812924683094025</v>
+        <v>0.04717199131846428</v>
       </c>
       <c r="D50">
-        <v>0.9997093081474304</v>
+        <v>0.9974546432495117</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51">
-        <v>0.0003204733366146684</v>
+        <v>0.003334160195663571</v>
       </c>
       <c r="B51">
-        <v>0.9999635219573975</v>
+        <v>0.9992806911468506</v>
       </c>
       <c r="C51">
-        <v>0.0112267229706049</v>
+        <v>0.04833652451634407</v>
       </c>
       <c r="D51">
-        <v>0.9996123909950256</v>
+        <v>0.9971364736557007</v>
       </c>
     </row>
   </sheetData>

--- a/run_log/run_results/train_history/training_history_run_14.xlsx
+++ b/run_log/run_results/train_history/training_history_run_14.xlsx
@@ -395,702 +395,702 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2">
-        <v>0.09710603207349777</v>
+        <v>0.071432925760746</v>
       </c>
       <c r="B2">
-        <v>0.9872792363166809</v>
+        <v>0.9800567626953125</v>
       </c>
       <c r="C2">
-        <v>0.05815830081701279</v>
+        <v>0.01750546507537365</v>
       </c>
       <c r="D2">
-        <v>0.9939548373222351</v>
+        <v>0.9988094568252563</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3">
-        <v>0.02685911022126675</v>
+        <v>0.01207085885107517</v>
       </c>
       <c r="B3">
-        <v>0.9978798627853394</v>
+        <v>0.9981154203414917</v>
       </c>
       <c r="C3">
-        <v>0.04530838504433632</v>
+        <v>0.00889816228300333</v>
       </c>
       <c r="D3">
-        <v>0.9942730069160461</v>
+        <v>0.998869001865387</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4">
-        <v>0.01106847450137138</v>
+        <v>0.007044259458780289</v>
       </c>
       <c r="B4">
-        <v>0.9982584714889526</v>
+        <v>0.9984675049781799</v>
       </c>
       <c r="C4">
-        <v>0.03361079096794128</v>
+        <v>0.005572132766246796</v>
       </c>
       <c r="D4">
-        <v>0.9955456852912903</v>
+        <v>0.9994047284126282</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5">
-        <v>0.007478190120309591</v>
+        <v>0.002788325306028128</v>
       </c>
       <c r="B5">
-        <v>0.9984666705131531</v>
+        <v>0.9993994235992432</v>
       </c>
       <c r="C5">
-        <v>0.03296075761318207</v>
+        <v>0.003888229373842478</v>
       </c>
       <c r="D5">
-        <v>0.9949093461036682</v>
+        <v>0.9997618794441223</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6">
-        <v>0.006323980167508125</v>
+        <v>0.002024667337536812</v>
       </c>
       <c r="B6">
-        <v>0.9985045790672302</v>
+        <v>0.9994615316390991</v>
       </c>
       <c r="C6">
-        <v>0.07847646623849869</v>
+        <v>0.0008195702685043216</v>
       </c>
       <c r="D6">
-        <v>0.9815462827682495</v>
+        <v>0.9998809695243835</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7">
-        <v>0.005134343635290861</v>
+        <v>0.001594877801835537</v>
       </c>
       <c r="B7">
-        <v>0.9986370801925659</v>
+        <v>0.9995858073234558</v>
       </c>
       <c r="C7">
-        <v>0.02376365289092064</v>
+        <v>0.002492917934432626</v>
       </c>
       <c r="D7">
-        <v>0.9958637952804565</v>
+        <v>0.9998214244842529</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8">
-        <v>0.004825778771191835</v>
+        <v>0.0009395657107234001</v>
       </c>
       <c r="B8">
-        <v>0.998580276966095</v>
+        <v>0.9996893405914307</v>
       </c>
       <c r="C8">
-        <v>0.03216518461704254</v>
+        <v>0.003666960867121816</v>
       </c>
       <c r="D8">
-        <v>0.9958637952804565</v>
+        <v>0.9996428489685059</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9">
-        <v>0.004204226657748222</v>
+        <v>0.001343700452707708</v>
       </c>
       <c r="B9">
-        <v>0.9987884759902954</v>
+        <v>0.9997721910476685</v>
       </c>
       <c r="C9">
-        <v>0.01572470925748348</v>
+        <v>0.002518505323678255</v>
       </c>
       <c r="D9">
-        <v>0.9965001344680786</v>
+        <v>0.9997618794441223</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10">
-        <v>0.004523877985775471</v>
+        <v>0.0007529841968789697</v>
       </c>
       <c r="B10">
-        <v>0.9986370801925659</v>
+        <v>0.9998757243156433</v>
       </c>
       <c r="C10">
-        <v>0.01691340282559395</v>
+        <v>0.001128750038333237</v>
       </c>
       <c r="D10">
-        <v>0.9965001344680786</v>
+        <v>0.9998809695243835</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11">
-        <v>0.004420673009008169</v>
+        <v>0.0008054365171119571</v>
       </c>
       <c r="B11">
-        <v>0.9986938238143921</v>
+        <v>0.9998136162757874</v>
       </c>
       <c r="C11">
-        <v>0.0184360034763813</v>
+        <v>0.001376897096633911</v>
       </c>
       <c r="D11">
-        <v>0.9971364736557007</v>
+        <v>0.9998214244842529</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12">
-        <v>0.004237192682921886</v>
+        <v>0.001962084788829088</v>
       </c>
       <c r="B12">
-        <v>0.9987127780914307</v>
+        <v>0.9996686577796936</v>
       </c>
       <c r="C12">
-        <v>0.03463906422257423</v>
+        <v>0.003031467320397496</v>
       </c>
       <c r="D12">
-        <v>0.9977728128433228</v>
+        <v>0.9997023344039917</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13">
-        <v>0.004454357549548149</v>
+        <v>0.0005426937714219093</v>
       </c>
       <c r="B13">
-        <v>0.9987695813179016</v>
+        <v>0.9998342990875244</v>
       </c>
       <c r="C13">
-        <v>0.02877644076943398</v>
+        <v>0.006332992110401392</v>
       </c>
       <c r="D13">
-        <v>0.9971364736557007</v>
+        <v>0.9992261528968811</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14">
-        <v>0.004041386768221855</v>
+        <v>0.0003821065474767238</v>
       </c>
       <c r="B14">
-        <v>0.998807430267334</v>
+        <v>0.9999171495437622</v>
       </c>
       <c r="C14">
-        <v>0.02446878328919411</v>
+        <v>0.001758369733579457</v>
       </c>
       <c r="D14">
-        <v>0.9971364736557007</v>
+        <v>0.9997023344039917</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15">
-        <v>0.003855388844385743</v>
+        <v>0.0006284148548729718</v>
       </c>
       <c r="B15">
-        <v>0.9989777803421021</v>
+        <v>0.9998964667320251</v>
       </c>
       <c r="C15">
-        <v>0.02178826183080673</v>
+        <v>0.001030823099426925</v>
       </c>
       <c r="D15">
-        <v>0.9974546432495117</v>
+        <v>0.9998214244842529</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16">
-        <v>0.004553400445729494</v>
+        <v>0.0007504862733185291</v>
       </c>
       <c r="B16">
-        <v>0.9989399313926697</v>
+        <v>0.9998136162757874</v>
       </c>
       <c r="C16">
-        <v>0.02268754690885544</v>
+        <v>0.001786935608834028</v>
       </c>
       <c r="D16">
-        <v>0.9968183040618896</v>
+        <v>0.9997023344039917</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17">
-        <v>0.004129610955715179</v>
+        <v>0.0002922247222159058</v>
       </c>
       <c r="B17">
-        <v>0.999034583568573</v>
+        <v>0.9998757243156433</v>
       </c>
       <c r="C17">
-        <v>0.02228164114058018</v>
+        <v>0.001108429976738989</v>
       </c>
       <c r="D17">
-        <v>0.9974546432495117</v>
+        <v>0.9998214244842529</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18">
-        <v>0.002926370594650507</v>
+        <v>0.0006888119387440383</v>
       </c>
       <c r="B18">
-        <v>0.9994699954986572</v>
+        <v>0.9998342990875244</v>
       </c>
       <c r="C18">
-        <v>0.02777880802750587</v>
+        <v>0.001016682712361217</v>
       </c>
       <c r="D18">
-        <v>0.9974546432495117</v>
+        <v>0.9999404549598694</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19">
-        <v>0.003564843209460378</v>
+        <v>0.000399757525883615</v>
       </c>
       <c r="B19">
-        <v>0.9992427825927734</v>
+        <v>0.9999171495437622</v>
       </c>
       <c r="C19">
-        <v>0.02762977592647076</v>
+        <v>0.0009421196300536394</v>
       </c>
       <c r="D19">
-        <v>0.9974546432495117</v>
+        <v>0.9999404549598694</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20">
-        <v>0.004055096302181482</v>
+        <v>0.0004215103108435869</v>
       </c>
       <c r="B20">
-        <v>0.9991102814674377</v>
+        <v>0.999937891960144</v>
       </c>
       <c r="C20">
-        <v>0.02798586897552013</v>
+        <v>0.002302622888237238</v>
       </c>
       <c r="D20">
-        <v>0.9974546432495117</v>
+        <v>0.9996428489685059</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21">
-        <v>0.004523102194070816</v>
+        <v>0.001163725857622921</v>
       </c>
       <c r="B21">
-        <v>0.999034583568573</v>
+        <v>0.9997721910476685</v>
       </c>
       <c r="C21">
-        <v>0.02222481556236744</v>
+        <v>0.001165747991763055</v>
       </c>
       <c r="D21">
-        <v>0.9974546432495117</v>
+        <v>0.9999404549598694</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22">
-        <v>0.003323583398014307</v>
+        <v>0.0001637792156543583</v>
       </c>
       <c r="B22">
-        <v>0.9993374347686768</v>
+        <v>0.9999793171882629</v>
       </c>
       <c r="C22">
-        <v>0.02308197878301144</v>
+        <v>0.00134793680626899</v>
       </c>
       <c r="D22">
-        <v>0.9974546432495117</v>
+        <v>0.9999404549598694</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23">
-        <v>0.004548867698758841</v>
+        <v>0.000131393302581273</v>
       </c>
       <c r="B23">
-        <v>0.9991102814674377</v>
+        <v>0.9999585747718811</v>
       </c>
       <c r="C23">
-        <v>0.02789357118308544</v>
+        <v>0.002220623660832644</v>
       </c>
       <c r="D23">
-        <v>0.9984091520309448</v>
+        <v>0.9996428489685059</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24">
-        <v>0.004070224240422249</v>
+        <v>0.0003488792572170496</v>
       </c>
       <c r="B24">
-        <v>0.9990913867950439</v>
+        <v>0.9999171495437622</v>
       </c>
       <c r="C24">
-        <v>0.03223966807126999</v>
+        <v>0.001558560528792441</v>
       </c>
       <c r="D24">
-        <v>0.9974546432495117</v>
+        <v>0.9999404549598694</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25">
-        <v>0.004418177995830774</v>
+        <v>0.0009291154565289617</v>
       </c>
       <c r="B25">
-        <v>0.9991102814674377</v>
+        <v>0.9998342990875244</v>
       </c>
       <c r="C25">
-        <v>0.02838349901139736</v>
+        <v>0.001481929793953896</v>
       </c>
       <c r="D25">
-        <v>0.9974546432495117</v>
+        <v>0.9998809695243835</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26">
-        <v>0.004044883418828249</v>
+        <v>0.0001762874308042228</v>
       </c>
       <c r="B26">
-        <v>0.9991292357444763</v>
+        <v>0.9999585747718811</v>
       </c>
       <c r="C26">
-        <v>0.02680773101747036</v>
+        <v>0.001393180689774454</v>
       </c>
       <c r="D26">
-        <v>0.9971364736557007</v>
+        <v>0.9999404549598694</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27">
-        <v>0.004043952561914921</v>
+        <v>0.0003804616862908006</v>
       </c>
       <c r="B27">
-        <v>0.9991670846939087</v>
+        <v>0.9999793171882629</v>
       </c>
       <c r="C27">
-        <v>0.0321003682911396</v>
+        <v>0.001544533763080835</v>
       </c>
       <c r="D27">
-        <v>0.9974546432495117</v>
+        <v>0.9998809695243835</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28">
-        <v>0.003342764684930444</v>
+        <v>0.0004437203169800341</v>
       </c>
       <c r="B28">
-        <v>0.9993374347686768</v>
+        <v>0.9998964667320251</v>
       </c>
       <c r="C28">
-        <v>0.03163162618875504</v>
+        <v>0.001726457616314292</v>
       </c>
       <c r="D28">
-        <v>0.9980909824371338</v>
+        <v>0.9999404549598694</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29">
-        <v>0.003697881242260337</v>
+        <v>0.0007796509889885783</v>
       </c>
       <c r="B29">
-        <v>0.999261736869812</v>
+        <v>0.9998964667320251</v>
       </c>
       <c r="C29">
-        <v>0.02882522717118263</v>
+        <v>0.001530378009192646</v>
       </c>
       <c r="D29">
-        <v>0.9980909824371338</v>
+        <v>0.9999404549598694</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30">
-        <v>0.00396894384175539</v>
+        <v>0.0004197605885565281</v>
       </c>
       <c r="B30">
-        <v>0.9991292357444763</v>
+        <v>0.9999793171882629</v>
       </c>
       <c r="C30">
-        <v>0.04555697739124298</v>
+        <v>0.001683302572928369</v>
       </c>
       <c r="D30">
-        <v>0.9977728128433228</v>
+        <v>0.9999404549598694</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31">
-        <v>0.003428887110203505</v>
+        <v>0.0004489562998060137</v>
       </c>
       <c r="B31">
-        <v>0.9994131922721863</v>
+        <v>0.999937891960144</v>
       </c>
       <c r="C31">
-        <v>0.04260098189115524</v>
+        <v>0.00163915054872632</v>
       </c>
       <c r="D31">
-        <v>0.9980909824371338</v>
+        <v>0.9999404549598694</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32">
-        <v>0.003801741171628237</v>
+        <v>0.0002899367827922106</v>
       </c>
       <c r="B32">
-        <v>0.9991292357444763</v>
+        <v>0.9999171495437622</v>
       </c>
       <c r="C32">
-        <v>0.03211163356900215</v>
+        <v>0.001633108360692859</v>
       </c>
       <c r="D32">
-        <v>0.9980909824371338</v>
+        <v>0.9998809695243835</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33">
-        <v>0.003890153020620346</v>
+        <v>9.961012256098911E-05</v>
       </c>
       <c r="B33">
-        <v>0.9991481900215149</v>
+        <v>0.9999793171882629</v>
       </c>
       <c r="C33">
-        <v>0.02726985514163971</v>
+        <v>0.001490167574957013</v>
       </c>
       <c r="D33">
-        <v>0.9980909824371338</v>
+        <v>0.9999404549598694</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34">
-        <v>0.003542009741067886</v>
+        <v>0.0006253143073990941</v>
       </c>
       <c r="B34">
-        <v>0.999261736869812</v>
+        <v>0.9998964667320251</v>
       </c>
       <c r="C34">
-        <v>0.03183046728372574</v>
+        <v>0.01001349650323391</v>
       </c>
       <c r="D34">
-        <v>0.9980909824371338</v>
+        <v>0.9951782822608948</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35">
-        <v>0.004088382236659527</v>
+        <v>0.0002751315187197179</v>
       </c>
       <c r="B35">
-        <v>0.9991102814674377</v>
+        <v>0.999937891960144</v>
       </c>
       <c r="C35">
-        <v>0.0330834835767746</v>
+        <v>0.0009371892083436251</v>
       </c>
       <c r="D35">
-        <v>0.9980909824371338</v>
+        <v>0.9996428489685059</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36">
-        <v>0.003787299152463675</v>
+        <v>8.158569835359231E-05</v>
       </c>
       <c r="B36">
-        <v>0.9992238879203796</v>
+        <v>0.9999793171882629</v>
       </c>
       <c r="C36">
-        <v>0.03787132725119591</v>
+        <v>0.000882901658769697</v>
       </c>
       <c r="D36">
-        <v>0.9974546432495117</v>
+        <v>0.9999404549598694</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37">
-        <v>0.00311693549156189</v>
+        <v>2.096043135679793E-05</v>
       </c>
       <c r="B37">
-        <v>0.9994131922721863</v>
+        <v>1</v>
       </c>
       <c r="C37">
-        <v>0.03463936224579811</v>
+        <v>0.001120846485719085</v>
       </c>
       <c r="D37">
-        <v>0.9974546432495117</v>
+        <v>0.9999404549598694</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38">
-        <v>0.003718815045431256</v>
+        <v>0.0007030910346657038</v>
       </c>
       <c r="B38">
-        <v>0.9991860389709473</v>
+        <v>0.9998757243156433</v>
       </c>
       <c r="C38">
-        <v>0.03611919283866882</v>
+        <v>0.001450333627872169</v>
       </c>
       <c r="D38">
-        <v>0.9977728128433228</v>
+        <v>0.9999404549598694</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39">
-        <v>0.003628178266808391</v>
+        <v>5.391412560129538E-05</v>
       </c>
       <c r="B39">
-        <v>0.9992427825927734</v>
+        <v>1</v>
       </c>
       <c r="C39">
-        <v>0.05458014458417892</v>
+        <v>0.00163026072550565</v>
       </c>
       <c r="D39">
-        <v>0.9974546432495117</v>
+        <v>0.9997618794441223</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40">
-        <v>0.003968276549130678</v>
+        <v>9.411505016032606E-05</v>
       </c>
       <c r="B40">
-        <v>0.9990913867950439</v>
+        <v>0.9999793171882629</v>
       </c>
       <c r="C40">
-        <v>0.02719040773808956</v>
+        <v>0.001584045006893575</v>
       </c>
       <c r="D40">
-        <v>0.9980909824371338</v>
+        <v>0.9999404549598694</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41">
-        <v>0.005423769820481539</v>
+        <v>0.0002890351752284914</v>
       </c>
       <c r="B41">
-        <v>0.999034583568573</v>
+        <v>0.9998964667320251</v>
       </c>
       <c r="C41">
-        <v>0.05385555699467659</v>
+        <v>0.001141366199590266</v>
       </c>
       <c r="D41">
-        <v>0.9977728128433228</v>
+        <v>0.9999404549598694</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42">
-        <v>0.003552494570612907</v>
+        <v>0.0003681188682094216</v>
       </c>
       <c r="B42">
-        <v>0.999318540096283</v>
+        <v>0.9999171495437622</v>
       </c>
       <c r="C42">
-        <v>0.05979811027646065</v>
+        <v>0.001533857779577374</v>
       </c>
       <c r="D42">
-        <v>0.9974546432495117</v>
+        <v>0.9999404549598694</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43">
-        <v>0.003552684094756842</v>
+        <v>0.001020055147819221</v>
       </c>
       <c r="B43">
-        <v>0.999261736869812</v>
+        <v>0.9998964667320251</v>
       </c>
       <c r="C43">
-        <v>0.05861984938383102</v>
+        <v>0.001804807921871543</v>
       </c>
       <c r="D43">
-        <v>0.9974546432495117</v>
+        <v>0.9998214244842529</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44">
-        <v>0.00392773887142539</v>
+        <v>8.673007687320933E-05</v>
       </c>
       <c r="B44">
-        <v>0.9992049336433411</v>
+        <v>0.999937891960144</v>
       </c>
       <c r="C44">
-        <v>0.04595331102609634</v>
+        <v>0.001860575983300805</v>
       </c>
       <c r="D44">
-        <v>0.9980909824371338</v>
+        <v>0.9998214244842529</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45">
-        <v>0.003732847049832344</v>
+        <v>3.469051080173813E-05</v>
       </c>
       <c r="B45">
-        <v>0.999261736869812</v>
+        <v>0.9999793171882629</v>
       </c>
       <c r="C45">
-        <v>0.03814717754721642</v>
+        <v>0.001567209721542895</v>
       </c>
       <c r="D45">
-        <v>0.9974546432495117</v>
+        <v>0.9999404549598694</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46">
-        <v>0.002643566112965345</v>
+        <v>0.0005204507033340633</v>
       </c>
       <c r="B46">
-        <v>0.9995078444480896</v>
+        <v>0.999937891960144</v>
       </c>
       <c r="C46">
-        <v>0.04010450839996338</v>
+        <v>0.001962702954187989</v>
       </c>
       <c r="D46">
-        <v>0.9974546432495117</v>
+        <v>0.9999404549598694</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47">
-        <v>0.002710732631385326</v>
+        <v>0.000127913590404205</v>
       </c>
       <c r="B47">
-        <v>0.9994510412216187</v>
+        <v>0.9999585747718811</v>
       </c>
       <c r="C47">
-        <v>0.04469374567270279</v>
+        <v>0.001791693503037095</v>
       </c>
       <c r="D47">
-        <v>0.9980909824371338</v>
+        <v>0.9998809695243835</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48">
-        <v>0.003474482102319598</v>
+        <v>5.919684917898849E-05</v>
       </c>
       <c r="B48">
-        <v>0.999261736869812</v>
+        <v>0.9999793171882629</v>
       </c>
       <c r="C48">
-        <v>0.04085085168480873</v>
+        <v>0.001811030204407871</v>
       </c>
       <c r="D48">
-        <v>0.9980909824371338</v>
+        <v>0.9999404549598694</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49">
-        <v>0.003149901051074266</v>
+        <v>6.218387716216967E-05</v>
       </c>
       <c r="B49">
-        <v>0.9993563890457153</v>
+        <v>0.9999793171882629</v>
       </c>
       <c r="C49">
-        <v>0.04933448880910873</v>
+        <v>0.001810107263736427</v>
       </c>
       <c r="D49">
-        <v>0.9974546432495117</v>
+        <v>0.9999404549598694</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50">
-        <v>0.004067272879183292</v>
+        <v>0.0008113188669085503</v>
       </c>
       <c r="B50">
-        <v>0.9992049336433411</v>
+        <v>0.9999171495437622</v>
       </c>
       <c r="C50">
-        <v>0.04717199131846428</v>
+        <v>0.002404500730335712</v>
       </c>
       <c r="D50">
-        <v>0.9974546432495117</v>
+        <v>0.9999404549598694</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51">
-        <v>0.003334160195663571</v>
+        <v>0.0002090093184961006</v>
       </c>
       <c r="B51">
-        <v>0.9992806911468506</v>
+        <v>0.9999585747718811</v>
       </c>
       <c r="C51">
-        <v>0.04833652451634407</v>
+        <v>0.002451836364343762</v>
       </c>
       <c r="D51">
-        <v>0.9971364736557007</v>
+        <v>0.9999404549598694</v>
       </c>
     </row>
   </sheetData>

--- a/run_log/run_results/train_history/training_history_run_14.xlsx
+++ b/run_log/run_results/train_history/training_history_run_14.xlsx
@@ -395,702 +395,702 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2">
-        <v>0.071432925760746</v>
+        <v>0.04497535154223442</v>
       </c>
       <c r="B2">
-        <v>0.9800567626953125</v>
+        <v>0.9920685887336731</v>
       </c>
       <c r="C2">
-        <v>0.01750546507537365</v>
+        <v>0.2917045950889587</v>
       </c>
       <c r="D2">
-        <v>0.9988094568252563</v>
+        <v>0.8868468403816223</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3">
-        <v>0.01207085885107517</v>
+        <v>0.007177175488322973</v>
       </c>
       <c r="B3">
-        <v>0.9981154203414917</v>
+        <v>0.9987097382545471</v>
       </c>
       <c r="C3">
-        <v>0.00889816228300333</v>
+        <v>0.2001671195030212</v>
       </c>
       <c r="D3">
-        <v>0.998869001865387</v>
+        <v>0.921319305896759</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4">
-        <v>0.007044259458780289</v>
+        <v>0.003940891940146685</v>
       </c>
       <c r="B4">
-        <v>0.9984675049781799</v>
+        <v>0.9989563822746277</v>
       </c>
       <c r="C4">
-        <v>0.005572132766246796</v>
+        <v>0.1297699809074402</v>
       </c>
       <c r="D4">
-        <v>0.9994047284126282</v>
+        <v>0.9584740996360779</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5">
-        <v>0.002788325306028128</v>
+        <v>0.002107171574607491</v>
       </c>
       <c r="B5">
-        <v>0.9993994235992432</v>
+        <v>0.9993928074836731</v>
       </c>
       <c r="C5">
-        <v>0.003888229373842478</v>
+        <v>0.09903871268033981</v>
       </c>
       <c r="D5">
-        <v>0.9997618794441223</v>
+        <v>0.9697993397712708</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6">
-        <v>0.002024667337536812</v>
+        <v>0.001605705823749304</v>
       </c>
       <c r="B6">
-        <v>0.9994615316390991</v>
+        <v>0.9995825290679932</v>
       </c>
       <c r="C6">
-        <v>0.0008195702685043216</v>
+        <v>0.04621319100260735</v>
       </c>
       <c r="D6">
-        <v>0.9998809695243835</v>
+        <v>0.9913570284843445</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7">
-        <v>0.001594877801835537</v>
+        <v>0.0009117427398450673</v>
       </c>
       <c r="B7">
-        <v>0.9995858073234558</v>
+        <v>0.999772310256958</v>
       </c>
       <c r="C7">
-        <v>0.002492917934432626</v>
+        <v>0.01477428246289492</v>
       </c>
       <c r="D7">
-        <v>0.9998214244842529</v>
+        <v>0.9968209862709045</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8">
-        <v>0.0009395657107234001</v>
+        <v>0.0009977055015042424</v>
       </c>
       <c r="B8">
-        <v>0.9996893405914307</v>
+        <v>0.9997533559799194</v>
       </c>
       <c r="C8">
-        <v>0.003666960867121816</v>
+        <v>0.03499288111925125</v>
       </c>
       <c r="D8">
-        <v>0.9996428489685059</v>
+        <v>0.9891714453697205</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9">
-        <v>0.001343700452707708</v>
+        <v>0.0008631933014839888</v>
       </c>
       <c r="B9">
-        <v>0.9997721910476685</v>
+        <v>0.9998292326927185</v>
       </c>
       <c r="C9">
-        <v>0.002518505323678255</v>
+        <v>0.09147689491510391</v>
       </c>
       <c r="D9">
-        <v>0.9997618794441223</v>
+        <v>0.9661235809326172</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10">
-        <v>0.0007529841968789697</v>
+        <v>0.0005225273198448122</v>
       </c>
       <c r="B10">
-        <v>0.9998757243156433</v>
+        <v>0.9998102784156799</v>
       </c>
       <c r="C10">
-        <v>0.001128750038333237</v>
+        <v>0.09271353483200073</v>
       </c>
       <c r="D10">
-        <v>0.9998809695243835</v>
+        <v>0.9603615999221802</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11">
-        <v>0.0008054365171119571</v>
+        <v>0.001137578277848661</v>
       </c>
       <c r="B11">
-        <v>0.9998136162757874</v>
+        <v>0.9997153878211975</v>
       </c>
       <c r="C11">
-        <v>0.001376897096633911</v>
+        <v>0.1710263341665268</v>
       </c>
       <c r="D11">
-        <v>0.9998214244842529</v>
+        <v>0.9370157122612</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12">
-        <v>0.001962084788829088</v>
+        <v>0.0007787683280184865</v>
       </c>
       <c r="B12">
-        <v>0.9996686577796936</v>
+        <v>0.9997912645339966</v>
       </c>
       <c r="C12">
-        <v>0.003031467320397496</v>
+        <v>0.2317436188459396</v>
       </c>
       <c r="D12">
-        <v>0.9997023344039917</v>
+        <v>0.9198291301727295</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13">
-        <v>0.0005426937714219093</v>
+        <v>0.0002849797310773283</v>
       </c>
       <c r="B13">
-        <v>0.9998342990875244</v>
+        <v>0.9999810457229614</v>
       </c>
       <c r="C13">
-        <v>0.006332992110401392</v>
+        <v>0.4951004385948181</v>
       </c>
       <c r="D13">
-        <v>0.9992261528968811</v>
+        <v>0.8485992550849915</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14">
-        <v>0.0003821065474767238</v>
+        <v>0.0004299433203414083</v>
       </c>
       <c r="B14">
-        <v>0.9999171495437622</v>
+        <v>0.999886155128479</v>
       </c>
       <c r="C14">
-        <v>0.001758369733579457</v>
+        <v>0.06532550603151321</v>
       </c>
       <c r="D14">
-        <v>0.9997023344039917</v>
+        <v>0.9806278347969055</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15">
-        <v>0.0006284148548729718</v>
+        <v>0.0008637411519885063</v>
       </c>
       <c r="B15">
-        <v>0.9998964667320251</v>
+        <v>0.9997533559799194</v>
       </c>
       <c r="C15">
-        <v>0.001030823099426925</v>
+        <v>0.05508442223072052</v>
       </c>
       <c r="D15">
-        <v>0.9998214244842529</v>
+        <v>0.9809259176254272</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16">
-        <v>0.0007504862733185291</v>
+        <v>0.000183705851668492</v>
       </c>
       <c r="B16">
-        <v>0.9998136162757874</v>
+        <v>0.9999241232872009</v>
       </c>
       <c r="C16">
-        <v>0.001786935608834028</v>
+        <v>0.06350543349981308</v>
       </c>
       <c r="D16">
-        <v>0.9997023344039917</v>
+        <v>0.9778462052345276</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17">
-        <v>0.0002922247222159058</v>
+        <v>0.0004025873786304146</v>
       </c>
       <c r="B17">
-        <v>0.9998757243156433</v>
+        <v>0.9999051094055176</v>
       </c>
       <c r="C17">
-        <v>0.001108429976738989</v>
+        <v>0.008791838772594929</v>
       </c>
       <c r="D17">
-        <v>0.9998214244842529</v>
+        <v>0.9977150559425354</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18">
-        <v>0.0006888119387440383</v>
+        <v>0.0001820193720050156</v>
       </c>
       <c r="B18">
-        <v>0.9998342990875244</v>
+        <v>0.9999241232872009</v>
       </c>
       <c r="C18">
-        <v>0.001016682712361217</v>
+        <v>0.06296680122613907</v>
       </c>
       <c r="D18">
-        <v>0.9999404549598694</v>
+        <v>0.9780449271202087</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19">
-        <v>0.000399757525883615</v>
+        <v>0.0001363454648526385</v>
       </c>
       <c r="B19">
-        <v>0.9999171495437622</v>
+        <v>0.9999620318412781</v>
       </c>
       <c r="C19">
-        <v>0.0009421196300536394</v>
+        <v>0.006865153089165688</v>
       </c>
       <c r="D19">
-        <v>0.9999404549598694</v>
+        <v>0.9981124401092529</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20">
-        <v>0.0004215103108435869</v>
+        <v>0.0006020630826242268</v>
       </c>
       <c r="B20">
-        <v>0.999937891960144</v>
+        <v>0.9999051094055176</v>
       </c>
       <c r="C20">
-        <v>0.002302622888237238</v>
+        <v>0.3233460783958435</v>
       </c>
       <c r="D20">
-        <v>0.9996428489685059</v>
+        <v>0.9206238985061646</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21">
-        <v>0.001163725857622921</v>
+        <v>0.0002294978476129472</v>
       </c>
       <c r="B21">
-        <v>0.9997721910476685</v>
+        <v>0.999886155128479</v>
       </c>
       <c r="C21">
-        <v>0.001165747991763055</v>
+        <v>0.03642316162586212</v>
       </c>
       <c r="D21">
-        <v>0.9999404549598694</v>
+        <v>0.9914563894271851</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22">
-        <v>0.0001637792156543583</v>
+        <v>0.0007004347280599177</v>
       </c>
       <c r="B22">
-        <v>0.9999793171882629</v>
+        <v>0.999886155128479</v>
       </c>
       <c r="C22">
-        <v>0.00134793680626899</v>
+        <v>0.01608124747872353</v>
       </c>
       <c r="D22">
-        <v>0.9999404549598694</v>
+        <v>0.9946354031562805</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23">
-        <v>0.000131393302581273</v>
+        <v>0.0001461661304347217</v>
       </c>
       <c r="B23">
-        <v>0.9999585747718811</v>
+        <v>0.9999620318412781</v>
       </c>
       <c r="C23">
-        <v>0.002220623660832644</v>
+        <v>0.02759123779833317</v>
       </c>
       <c r="D23">
-        <v>0.9996428489685059</v>
+        <v>0.9910590052604675</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24">
-        <v>0.0003488792572170496</v>
+        <v>0.001204341184347868</v>
       </c>
       <c r="B24">
-        <v>0.9999171495437622</v>
+        <v>0.9998481869697571</v>
       </c>
       <c r="C24">
-        <v>0.001558560528792441</v>
+        <v>0.1449002623558044</v>
       </c>
       <c r="D24">
-        <v>0.9999404549598694</v>
+        <v>0.9336379766464233</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25">
-        <v>0.0009291154565289617</v>
+        <v>8.308889664476737E-05</v>
       </c>
       <c r="B25">
-        <v>0.9998342990875244</v>
+        <v>0.9999620318412781</v>
       </c>
       <c r="C25">
-        <v>0.001481929793953896</v>
+        <v>0.07274077832698822</v>
       </c>
       <c r="D25">
-        <v>0.9998809695243835</v>
+        <v>0.9635406136512756</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26">
-        <v>0.0001762874308042228</v>
+        <v>0.0004667158937081695</v>
       </c>
       <c r="B26">
-        <v>0.9999585747718811</v>
+        <v>0.999886155128479</v>
       </c>
       <c r="C26">
-        <v>0.001393180689774454</v>
+        <v>0.01894507184624672</v>
       </c>
       <c r="D26">
-        <v>0.9999404549598694</v>
+        <v>0.9929465651512146</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27">
-        <v>0.0003804616862908006</v>
+        <v>2.752896398305893E-05</v>
       </c>
       <c r="B27">
-        <v>0.9999793171882629</v>
+        <v>1</v>
       </c>
       <c r="C27">
-        <v>0.001544533763080835</v>
+        <v>0.02721733227372169</v>
       </c>
       <c r="D27">
-        <v>0.9998809695243835</v>
+        <v>0.9885753989219666</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28">
-        <v>0.0004437203169800341</v>
+        <v>1.169698498415528E-05</v>
       </c>
       <c r="B28">
-        <v>0.9998964667320251</v>
+        <v>1</v>
       </c>
       <c r="C28">
-        <v>0.001726457616314292</v>
+        <v>0.02653601951897144</v>
       </c>
       <c r="D28">
-        <v>0.9999404549598694</v>
+        <v>0.9894695281982422</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29">
-        <v>0.0007796509889885783</v>
+        <v>0.0001365855132462457</v>
       </c>
       <c r="B29">
-        <v>0.9998964667320251</v>
+        <v>0.9999241232872009</v>
       </c>
       <c r="C29">
-        <v>0.001530378009192646</v>
+        <v>0.05210800841450691</v>
       </c>
       <c r="D29">
-        <v>0.9999404549598694</v>
+        <v>0.9851977229118347</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30">
-        <v>0.0004197605885565281</v>
+        <v>0.0002549310156609863</v>
       </c>
       <c r="B30">
-        <v>0.9999793171882629</v>
+        <v>0.999886155128479</v>
       </c>
       <c r="C30">
-        <v>0.001683302572928369</v>
+        <v>0.01493685413151979</v>
       </c>
       <c r="D30">
-        <v>0.9999404549598694</v>
+        <v>0.995628833770752</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31">
-        <v>0.0004489562998060137</v>
+        <v>0.0007826474611647427</v>
       </c>
       <c r="B31">
-        <v>0.999937891960144</v>
+        <v>0.9998481869697571</v>
       </c>
       <c r="C31">
-        <v>0.00163915054872632</v>
+        <v>0.06970255821943283</v>
       </c>
       <c r="D31">
-        <v>0.9999404549598694</v>
+        <v>0.9774488210678101</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32">
-        <v>0.0002899367827922106</v>
+        <v>0.000284696783637628</v>
       </c>
       <c r="B32">
-        <v>0.9999171495437622</v>
+        <v>0.9999620318412781</v>
       </c>
       <c r="C32">
-        <v>0.001633108360692859</v>
+        <v>0.03373663872480392</v>
       </c>
       <c r="D32">
-        <v>0.9998809695243835</v>
+        <v>0.9880786538124084</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33">
-        <v>9.961012256098911E-05</v>
+        <v>2.759637209237553E-05</v>
       </c>
       <c r="B33">
-        <v>0.9999793171882629</v>
+        <v>0.9999810457229614</v>
       </c>
       <c r="C33">
-        <v>0.001490167574957013</v>
+        <v>0.05513083934783936</v>
       </c>
       <c r="D33">
-        <v>0.9999404549598694</v>
+        <v>0.9830121397972107</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34">
-        <v>0.0006253143073990941</v>
+        <v>0.000474411528557539</v>
       </c>
       <c r="B34">
-        <v>0.9998964667320251</v>
+        <v>0.9999241232872009</v>
       </c>
       <c r="C34">
-        <v>0.01001349650323391</v>
+        <v>0.2142944633960724</v>
       </c>
       <c r="D34">
-        <v>0.9951782822608948</v>
+        <v>0.9417842030525208</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35">
-        <v>0.0002751315187197179</v>
+        <v>0.0004598958184942603</v>
       </c>
       <c r="B35">
-        <v>0.999937891960144</v>
+        <v>0.9999620318412781</v>
       </c>
       <c r="C35">
-        <v>0.0009371892083436251</v>
+        <v>0.3564826250076294</v>
       </c>
       <c r="D35">
-        <v>0.9996428489685059</v>
+        <v>0.9183389544487</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36">
-        <v>8.158569835359231E-05</v>
+        <v>0.0001915312459459528</v>
       </c>
       <c r="B36">
-        <v>0.9999793171882629</v>
+        <v>0.9999430775642395</v>
       </c>
       <c r="C36">
-        <v>0.000882901658769697</v>
+        <v>0.2683308124542236</v>
       </c>
       <c r="D36">
-        <v>0.9999404549598694</v>
+        <v>0.9412875175476074</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37">
-        <v>2.096043135679793E-05</v>
+        <v>0.0001399757748004049</v>
       </c>
       <c r="B37">
-        <v>1</v>
+        <v>0.9999430775642395</v>
       </c>
       <c r="C37">
-        <v>0.001120846485719085</v>
+        <v>0.1052131280303001</v>
       </c>
       <c r="D37">
-        <v>0.9999404549598694</v>
+        <v>0.9665209650993347</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38">
-        <v>0.0007030910346657038</v>
+        <v>0.00010727238986874</v>
       </c>
       <c r="B38">
-        <v>0.9998757243156433</v>
+        <v>0.9999620318412781</v>
       </c>
       <c r="C38">
-        <v>0.001450333627872169</v>
+        <v>0.2032349109649658</v>
       </c>
       <c r="D38">
-        <v>0.9999404549598694</v>
+        <v>0.9440691471099854</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39">
-        <v>5.391412560129538E-05</v>
+        <v>0.000206468248507008</v>
       </c>
       <c r="B39">
-        <v>1</v>
+        <v>0.9998672008514404</v>
       </c>
       <c r="C39">
-        <v>0.00163026072550565</v>
+        <v>0.1766960471868515</v>
       </c>
       <c r="D39">
-        <v>0.9997618794441223</v>
+        <v>0.9531095027923584</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40">
-        <v>9.411505016032606E-05</v>
+        <v>0.0003268738510087132</v>
       </c>
       <c r="B40">
-        <v>0.9999793171882629</v>
+        <v>0.9999620318412781</v>
       </c>
       <c r="C40">
-        <v>0.001584045006893575</v>
+        <v>0.1182726249098778</v>
       </c>
       <c r="D40">
-        <v>0.9999404549598694</v>
+        <v>0.9667196273803711</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41">
-        <v>0.0002890351752284914</v>
+        <v>0.0005490024341270328</v>
       </c>
       <c r="B41">
-        <v>0.9998964667320251</v>
+        <v>0.9999051094055176</v>
       </c>
       <c r="C41">
-        <v>0.001141366199590266</v>
+        <v>0.1321217864751816</v>
       </c>
       <c r="D41">
-        <v>0.9999404549598694</v>
+        <v>0.9637393355369568</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42">
-        <v>0.0003681188682094216</v>
+        <v>0.000270524004008621</v>
       </c>
       <c r="B42">
-        <v>0.9999171495437622</v>
+        <v>0.9999241232872009</v>
       </c>
       <c r="C42">
-        <v>0.001533857779577374</v>
+        <v>0.09445898979902267</v>
       </c>
       <c r="D42">
-        <v>0.9999404549598694</v>
+        <v>0.9731770157814026</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43">
-        <v>0.001020055147819221</v>
+        <v>7.746432675048709E-05</v>
       </c>
       <c r="B43">
-        <v>0.9998964667320251</v>
+        <v>0.9999810457229614</v>
       </c>
       <c r="C43">
-        <v>0.001804807921871543</v>
+        <v>0.7963477969169617</v>
       </c>
       <c r="D43">
-        <v>0.9998214244842529</v>
+        <v>0.8204848170280457</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44">
-        <v>8.673007687320933E-05</v>
+        <v>0.0002391024609096348</v>
       </c>
       <c r="B44">
-        <v>0.999937891960144</v>
+        <v>0.9999051094055176</v>
       </c>
       <c r="C44">
-        <v>0.001860575983300805</v>
+        <v>0.7631086707115173</v>
       </c>
       <c r="D44">
-        <v>0.9998214244842529</v>
+        <v>0.8805881142616272</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45">
-        <v>3.469051080173813E-05</v>
+        <v>0.000231511308811605</v>
       </c>
       <c r="B45">
-        <v>0.9999793171882629</v>
+        <v>0.9999810457229614</v>
       </c>
       <c r="C45">
-        <v>0.001567209721542895</v>
+        <v>0.2004449516534805</v>
       </c>
       <c r="D45">
-        <v>0.9999404549598694</v>
+        <v>0.9561891555786133</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46">
-        <v>0.0005204507033340633</v>
+        <v>1.142250857810723E-05</v>
       </c>
       <c r="B46">
-        <v>0.999937891960144</v>
+        <v>1</v>
       </c>
       <c r="C46">
-        <v>0.001962702954187989</v>
+        <v>0.5915632843971252</v>
       </c>
       <c r="D46">
-        <v>0.9999404549598694</v>
+        <v>0.8705543279647827</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47">
-        <v>0.000127913590404205</v>
+        <v>0.0002372705639572814</v>
       </c>
       <c r="B47">
-        <v>0.9999585747718811</v>
+        <v>0.9999430775642395</v>
       </c>
       <c r="C47">
-        <v>0.001791693503037095</v>
+        <v>0.3228183686733246</v>
       </c>
       <c r="D47">
-        <v>0.9998809695243835</v>
+        <v>0.9372143745422363</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48">
-        <v>5.919684917898849E-05</v>
+        <v>0.0002884367131628096</v>
       </c>
       <c r="B48">
-        <v>0.9999793171882629</v>
+        <v>0.9999051094055176</v>
       </c>
       <c r="C48">
-        <v>0.001811030204407871</v>
+        <v>0.03677201271057129</v>
       </c>
       <c r="D48">
-        <v>0.9999404549598694</v>
+        <v>0.9926485419273376</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49">
-        <v>6.218387716216967E-05</v>
+        <v>8.320244887727313E-06</v>
       </c>
       <c r="B49">
-        <v>0.9999793171882629</v>
+        <v>1</v>
       </c>
       <c r="C49">
-        <v>0.001810107263736427</v>
+        <v>0.04546402394771576</v>
       </c>
       <c r="D49">
-        <v>0.9999404549598694</v>
+        <v>0.9905622601509094</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50">
-        <v>0.0008113188669085503</v>
+        <v>7.25709178368561E-05</v>
       </c>
       <c r="B50">
-        <v>0.9999171495437622</v>
+        <v>0.9999810457229614</v>
       </c>
       <c r="C50">
-        <v>0.002404500730335712</v>
+        <v>0.01960747502744198</v>
       </c>
       <c r="D50">
-        <v>0.9999404549598694</v>
+        <v>0.9943373799324036</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51">
-        <v>0.0002090093184961006</v>
+        <v>0.0004894349258393049</v>
       </c>
       <c r="B51">
-        <v>0.9999585747718811</v>
+        <v>0.9999620318412781</v>
       </c>
       <c r="C51">
-        <v>0.002451836364343762</v>
+        <v>0.02386931516230106</v>
       </c>
       <c r="D51">
-        <v>0.9999404549598694</v>
+        <v>0.9922511577606201</v>
       </c>
     </row>
   </sheetData>
